--- a/public/assets/excel-template/substation.xlsx
+++ b/public/assets/excel-template/substation.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xampp\htdocs\apks\apks\public\assets\excel-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D22E0E9-C47A-4A21-9507-CE3C38E435DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Visual Check</t>
-  </si>
-  <si>
-    <t>Pembersihan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>NO</t>
   </si>
@@ -65,35 +55,69 @@
     <t>Coordinate</t>
   </si>
   <si>
-    <t>Pintu tidak Berkunci/rosak</t>
-  </si>
-  <si>
     <t>Semak rumput panjang</t>
   </si>
   <si>
     <t>Dahan Pokok memasuki compound PE</t>
   </si>
   <si>
-    <t>Bangunan Defects</t>
-  </si>
-  <si>
     <t>Pembersihan Iklan haram/ banner</t>
+  </si>
+  <si>
+    <t>Tidak Berkunci</t>
+  </si>
+  <si>
+    <t>Rosak</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Pintu</t>
+  </si>
+  <si>
+    <t>Bumbung Pecah</t>
+  </si>
+  <si>
+    <t>Gutter Rosak</t>
+  </si>
+  <si>
+    <t>Base Pecah</t>
+  </si>
+  <si>
+    <t>Bangunan</t>
+  </si>
+  <si>
+    <t>Pokok</t>
+  </si>
+  <si>
+    <t>Pembersihan Iklan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Defects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,35 +126,87 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -152,26 +228,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,7 +323,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -305,232 +402,295 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" customWidth="1"/>
-    <col min="16" max="16" width="59.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="V2" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:O1"/>
+  <mergeCells count="4">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="V1:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/assets/excel-template/substation.xlsx
+++ b/public/assets/excel-template/substation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xampp\htdocs\apks\apks\public\assets\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D22E0E9-C47A-4A21-9507-CE3C38E435DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,23 +241,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,91 +565,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
-    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L1" s="5" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="8" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
